--- a/数据/数据库.xlsx
+++ b/数据/数据库.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\grapro\project\graduateproject\数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35866032-F0EC-4E8A-8BCF-05B1CCF7D416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0025EB-0286-4BE9-9B92-A9CC693E3021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13176" yWindow="48" windowWidth="9876" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="217">
   <si>
     <t>课程大体系</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,734 @@
   </si>
   <si>
     <t>scrapy爬虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>助教海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrapy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速开发网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python实用主义学编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用python做深度学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑板客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matplotlib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standford</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python-人工智能学习路线图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐宇迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车万翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序设计基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python进阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python面向对象与模块化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐上轻至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>py数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷曲神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python大数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springcloud分布式架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿甘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springcloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javaEE基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高新强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度解剖dubbo源码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java并发编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kevin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springBoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javaee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struts2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java swing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java网站开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql数据库与JDBC框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeMarker MVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javaWEB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeMarker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面静态化技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaWEB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSH框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springMVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EasyUI</t>
+  </si>
+  <si>
+    <t>Shiro</t>
+  </si>
+  <si>
+    <t>安卓APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹指天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thinkPHP框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHP+React</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方糖气球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区链块应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workerman+thinkPHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thinkPHP开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHPCMS内容二次开发</t>
+  </si>
+  <si>
+    <t>李强强</t>
+  </si>
+  <si>
+    <t>云知梦</t>
+  </si>
+  <si>
+    <t>PHP5</t>
+  </si>
+  <si>
+    <t>面向对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thinkPHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workerman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHPExcel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phpexcel</t>
+  </si>
+  <si>
+    <t>易风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++进阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++并发与多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KuangXiang</t>
+  </si>
+  <si>
+    <t>并发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++QT5跨平台界面编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏曹俊</t>
+  </si>
+  <si>
+    <t>跨平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编程基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C语言程序设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++对象模型探索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux  c++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNITY+C#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C#程序设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐大仕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.NET/C#初中级项目实战</t>
+  </si>
+  <si>
+    <t>常慧勇</t>
+  </si>
+  <si>
+    <t>.NET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R语言数据分析挖掘实战</t>
+  </si>
+  <si>
+    <t>keguang</t>
+  </si>
+  <si>
+    <t>R语言量化交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中继点</t>
+  </si>
+  <si>
+    <t>量化交易</t>
+  </si>
+  <si>
+    <t>R语言数据分析挖掘应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中继点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R语言文本挖掘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R语言推荐系统建模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本挖掘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggplot2作图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析报告的制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>react+vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JackLee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue经典教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>react经典教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue.js开发教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bootstrap开发框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李兴华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue项目开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php+React</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html+css快速入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wordpress微信小程序开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零基础学微信小程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javaWeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java网站中级制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零基础学SpringBoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javaWeb入门到实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林祥纤</t>
+  </si>
+  <si>
+    <t>刘英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaWeb数据库操作JDBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mybatis3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring-data-jpa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javaweb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +883,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +905,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +937,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -209,25 +960,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -505,470 +1310,1504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73:G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="C19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="C21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="C22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="C23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="C24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="C25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A25"/>
+  <mergeCells count="12">
+    <mergeCell ref="B73:B83"/>
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="B16:B35"/>
+    <mergeCell ref="A2:A122"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="B59:B68"/>
+    <mergeCell ref="B69:B72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据/数据库.xlsx
+++ b/数据/数据库.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\grapro\project\graduateproject\数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0025EB-0286-4BE9-9B92-A9CC693E3021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACED14A-A7EB-40EF-9976-7F4BA0EAF422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="11124" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1011,12 +1011,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,9 +1023,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1312,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73:G83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1340,26 +1340,26 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1379,8 +1379,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1398,8 +1398,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1420,8 +1420,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1436,8 +1436,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1452,8 +1452,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1474,8 +1474,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1490,8 +1490,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1518,8 +1518,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1540,8 +1540,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
@@ -1559,8 +1559,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1575,8 +1575,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1597,8 +1597,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
@@ -1622,8 +1622,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
@@ -1632,8 +1632,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1650,8 +1650,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="1" t="s">
         <v>67</v>
       </c>
@@ -1669,8 +1669,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1688,8 +1688,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="1" t="s">
         <v>76</v>
       </c>
@@ -1704,8 +1704,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="1" t="s">
         <v>78</v>
       </c>
@@ -1720,8 +1720,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="1" t="s">
         <v>82</v>
       </c>
@@ -1736,8 +1736,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="1" t="s">
         <v>84</v>
       </c>
@@ -1755,8 +1755,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
         <v>87</v>
       </c>
@@ -1771,8 +1771,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="1" t="s">
         <v>90</v>
       </c>
@@ -1787,8 +1787,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1" t="s">
         <v>92</v>
       </c>
@@ -1800,91 +1800,91 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="9" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="9" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="9" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="9" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="9" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="1" t="s">
         <v>105</v>
       </c>
@@ -1899,28 +1899,28 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -1929,26 +1929,26 @@
       <c r="I33" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="1" t="s">
         <v>112</v>
       </c>
@@ -1963,8 +1963,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1984,8 +1984,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="1" t="s">
         <v>119</v>
       </c>
@@ -2003,8 +2003,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="1" t="s">
         <v>123</v>
       </c>
@@ -2019,8 +2019,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="1" t="s">
         <v>124</v>
       </c>
@@ -2035,8 +2035,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="1" t="s">
         <v>125</v>
       </c>
@@ -2057,8 +2057,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="1" t="s">
         <v>132</v>
       </c>
@@ -2076,8 +2076,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="6" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="7" t="s">
         <v>135</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2097,8 +2097,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="1" t="s">
         <v>140</v>
       </c>
@@ -2110,8 +2110,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="1" t="s">
         <v>145</v>
       </c>
@@ -2126,8 +2126,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="1" t="s">
         <v>152</v>
       </c>
@@ -2139,8 +2139,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="1" t="s">
         <v>154</v>
       </c>
@@ -2149,8 +2149,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="8"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="1" t="s">
         <v>141</v>
       </c>
@@ -2165,7 +2165,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="3" t="s">
         <v>136</v>
       </c>
@@ -2186,8 +2186,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="6" t="s">
+      <c r="A49" s="11"/>
+      <c r="B49" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2207,8 +2207,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="1" t="s">
         <v>156</v>
       </c>
@@ -2223,8 +2223,8 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="1" t="s">
         <v>162</v>
       </c>
@@ -2239,8 +2239,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="6" t="s">
+      <c r="A52" s="11"/>
+      <c r="B52" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2260,8 +2260,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="7"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="1" t="s">
         <v>167</v>
       </c>
@@ -2273,8 +2273,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="1" t="s">
         <v>170</v>
       </c>
@@ -2283,8 +2283,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="7"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="1" t="s">
         <v>172</v>
       </c>
@@ -2302,8 +2302,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="7"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="1" t="s">
         <v>173</v>
       </c>
@@ -2321,8 +2321,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="7"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="8"/>
       <c r="C57" s="1" t="s">
         <v>177</v>
       </c>
@@ -2334,8 +2334,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="8"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="1" t="s">
         <v>179</v>
       </c>
@@ -2347,14 +2347,14 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="6" t="s">
+      <c r="A59" s="11"/>
+      <c r="B59" s="7" t="s">
         <v>188</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="6" t="s">
         <v>181</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -2362,8 +2362,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="7"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="1" t="s">
         <v>182</v>
       </c>
@@ -2375,8 +2375,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="7"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="1" t="s">
         <v>183</v>
       </c>
@@ -2388,8 +2388,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="7"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="1" t="s">
         <v>185</v>
       </c>
@@ -2401,8 +2401,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="7"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="1" t="s">
         <v>187</v>
       </c>
@@ -2414,8 +2414,8 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="7"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="1" t="s">
         <v>190</v>
       </c>
@@ -2427,8 +2427,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="7"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="8"/>
       <c r="C65" s="1" t="s">
         <v>191</v>
       </c>
@@ -2440,8 +2440,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="7"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="8"/>
       <c r="C66" s="1" t="s">
         <v>192</v>
       </c>
@@ -2453,8 +2453,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="7"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="8"/>
       <c r="C67" s="1" t="s">
         <v>194</v>
       </c>
@@ -2466,8 +2466,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="8"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="1" t="s">
         <v>195</v>
       </c>
@@ -2479,8 +2479,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="6" t="s">
+      <c r="A69" s="11"/>
+      <c r="B69" s="7" t="s">
         <v>196</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -2494,8 +2494,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="7"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="1" t="s">
         <v>198</v>
       </c>
@@ -2507,8 +2507,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="7"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="8"/>
       <c r="C71" s="1" t="s">
         <v>200</v>
       </c>
@@ -2520,8 +2520,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="7"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="8"/>
       <c r="C72" s="1" t="s">
         <v>202</v>
       </c>
@@ -2533,8 +2533,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="6" t="s">
+      <c r="A73" s="11"/>
+      <c r="B73" s="7" t="s">
         <v>203</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2548,8 +2548,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="7"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="8"/>
       <c r="C74" s="1" t="s">
         <v>205</v>
       </c>
@@ -2561,8 +2561,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="7"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="8"/>
       <c r="C75" s="1" t="s">
         <v>206</v>
       </c>
@@ -2574,8 +2574,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="7"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="8"/>
       <c r="C76" s="1" t="s">
         <v>209</v>
       </c>
@@ -2587,8 +2587,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="7"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="1" t="s">
         <v>211</v>
       </c>
@@ -2600,8 +2600,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="7"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="8"/>
       <c r="C78" s="1" t="s">
         <v>212</v>
       </c>
@@ -2613,8 +2613,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="7"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="8"/>
       <c r="C79" s="1" t="s">
         <v>213</v>
       </c>
@@ -2626,8 +2626,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="7"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="8"/>
       <c r="C80" s="1" t="s">
         <v>109</v>
       </c>
@@ -2639,8 +2639,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="7"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="8"/>
       <c r="C81" s="1" t="s">
         <v>214</v>
       </c>
@@ -2652,8 +2652,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="7"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="8"/>
       <c r="C82" s="1" t="s">
         <v>84</v>
       </c>
@@ -2665,8 +2665,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="8"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="1" t="s">
         <v>108</v>
       </c>
@@ -2678,129 +2678,124 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
+      <c r="A84" s="11"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
+      <c r="A85" s="11"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
+      <c r="A86" s="11"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
+      <c r="A87" s="11"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
+      <c r="A88" s="11"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
+      <c r="A89" s="11"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
+      <c r="A90" s="11"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
+      <c r="A91" s="11"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
+      <c r="A92" s="11"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
+      <c r="A93" s="11"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
+      <c r="A94" s="11"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
+      <c r="A95" s="11"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
+      <c r="A96" s="11"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
+      <c r="A97" s="11"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
+      <c r="A98" s="11"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
+      <c r="A99" s="11"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
+      <c r="A100" s="11"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
+      <c r="A101" s="11"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
+      <c r="A102" s="11"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
+      <c r="A103" s="11"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
+      <c r="A104" s="11"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
+      <c r="A105" s="11"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
+      <c r="A106" s="11"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
+      <c r="A107" s="11"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
+      <c r="A108" s="11"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
+      <c r="A109" s="11"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
+      <c r="A110" s="11"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
+      <c r="A111" s="11"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
+      <c r="A112" s="11"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
+      <c r="A113" s="11"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
+      <c r="A114" s="11"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
+      <c r="A115" s="11"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
+      <c r="A116" s="11"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
+      <c r="A117" s="11"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
+      <c r="A118" s="11"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
+      <c r="A119" s="11"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
+      <c r="A120" s="11"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
+      <c r="A121" s="11"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
+      <c r="A122" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B73:B83"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="B16:B35"/>
     <mergeCell ref="A2:A122"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="B42:B47"/>
@@ -2808,6 +2803,11 @@
     <mergeCell ref="B52:B58"/>
     <mergeCell ref="B59:B68"/>
     <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B83"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="B16:B35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据/数据库.xlsx
+++ b/数据/数据库.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\grapro\project\graduateproject\数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACED14A-A7EB-40EF-9976-7F4BA0EAF422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170F5815-9EFC-4A2F-BD26-20686E4366BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="0" windowWidth="11124" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1014,6 +1014,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,9 +1027,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1312,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1340,26 +1340,26 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1379,8 +1379,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1398,8 +1398,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1420,8 +1420,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1436,8 +1436,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1452,8 +1452,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1474,8 +1474,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1490,8 +1490,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1518,8 +1518,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1540,8 +1540,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
@@ -1559,8 +1559,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1575,8 +1575,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1597,8 +1597,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
@@ -1622,8 +1622,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
@@ -1632,8 +1632,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1650,8 +1650,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="1" t="s">
         <v>67</v>
       </c>
@@ -1669,8 +1669,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1688,8 +1688,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="1" t="s">
         <v>76</v>
       </c>
@@ -1704,8 +1704,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="1" t="s">
         <v>78</v>
       </c>
@@ -1720,8 +1720,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="1" t="s">
         <v>82</v>
       </c>
@@ -1736,8 +1736,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="1" t="s">
         <v>84</v>
       </c>
@@ -1755,8 +1755,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="1" t="s">
         <v>87</v>
       </c>
@@ -1771,8 +1771,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="1" t="s">
         <v>90</v>
       </c>
@@ -1787,8 +1787,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="1" t="s">
         <v>92</v>
       </c>
@@ -1800,8 +1800,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="4" t="s">
         <v>71</v>
       </c>
@@ -1813,8 +1813,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="4" t="s">
         <v>94</v>
       </c>
@@ -1829,8 +1829,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="4" t="s">
         <v>95</v>
       </c>
@@ -1848,8 +1848,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="4" t="s">
         <v>96</v>
       </c>
@@ -1867,8 +1867,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="4" t="s">
         <v>97</v>
       </c>
@@ -1883,8 +1883,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="1" t="s">
         <v>105</v>
       </c>
@@ -1899,8 +1899,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="1" t="s">
         <v>106</v>
       </c>
@@ -1912,8 +1912,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="1" t="s">
         <v>107</v>
       </c>
@@ -1934,8 +1934,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="1" t="s">
         <v>108</v>
       </c>
@@ -1947,8 +1947,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="1" t="s">
         <v>112</v>
       </c>
@@ -1963,8 +1963,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1984,8 +1984,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="1" t="s">
         <v>119</v>
       </c>
@@ -2003,8 +2003,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="1" t="s">
         <v>123</v>
       </c>
@@ -2019,8 +2019,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="1" t="s">
         <v>124</v>
       </c>
@@ -2035,8 +2035,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="1" t="s">
         <v>125</v>
       </c>
@@ -2057,8 +2057,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="1" t="s">
         <v>132</v>
       </c>
@@ -2076,8 +2076,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2097,8 +2097,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="1" t="s">
         <v>140</v>
       </c>
@@ -2110,8 +2110,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="1" t="s">
         <v>145</v>
       </c>
@@ -2126,8 +2126,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="1" t="s">
         <v>152</v>
       </c>
@@ -2139,8 +2139,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="1" t="s">
         <v>154</v>
       </c>
@@ -2149,8 +2149,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="9"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="1" t="s">
         <v>141</v>
       </c>
@@ -2165,7 +2165,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="3" t="s">
         <v>136</v>
       </c>
@@ -2186,8 +2186,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="7"/>
+      <c r="B49" s="8" t="s">
         <v>137</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2207,8 +2207,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="1" t="s">
         <v>156</v>
       </c>
@@ -2223,8 +2223,8 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="1" t="s">
         <v>162</v>
       </c>
@@ -2239,8 +2239,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="7"/>
+      <c r="B52" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2260,8 +2260,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="8"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="1" t="s">
         <v>167</v>
       </c>
@@ -2273,8 +2273,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="1" t="s">
         <v>170</v>
       </c>
@@ -2283,8 +2283,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="1" t="s">
         <v>172</v>
       </c>
@@ -2302,8 +2302,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="1" t="s">
         <v>173</v>
       </c>
@@ -2321,8 +2321,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="8"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="1" t="s">
         <v>177</v>
       </c>
@@ -2334,8 +2334,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="10"/>
       <c r="C58" s="1" t="s">
         <v>179</v>
       </c>
@@ -2347,8 +2347,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="7" t="s">
+      <c r="A59" s="7"/>
+      <c r="B59" s="8" t="s">
         <v>188</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2362,8 +2362,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="8"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="1" t="s">
         <v>182</v>
       </c>
@@ -2375,8 +2375,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="1" t="s">
         <v>183</v>
       </c>
@@ -2388,8 +2388,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="8"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="1" t="s">
         <v>185</v>
       </c>
@@ -2401,8 +2401,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="8"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="1" t="s">
         <v>187</v>
       </c>
@@ -2414,8 +2414,8 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="8"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="1" t="s">
         <v>190</v>
       </c>
@@ -2427,8 +2427,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="8"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="1" t="s">
         <v>191</v>
       </c>
@@ -2440,8 +2440,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="8"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="1" t="s">
         <v>192</v>
       </c>
@@ -2453,8 +2453,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="8"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="1" t="s">
         <v>194</v>
       </c>
@@ -2466,8 +2466,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="9"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="1" t="s">
         <v>195</v>
       </c>
@@ -2479,8 +2479,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="7" t="s">
+      <c r="A69" s="7"/>
+      <c r="B69" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -2494,8 +2494,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="8"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="1" t="s">
         <v>198</v>
       </c>
@@ -2507,8 +2507,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="8"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="1" t="s">
         <v>200</v>
       </c>
@@ -2520,8 +2520,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="8"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="1" t="s">
         <v>202</v>
       </c>
@@ -2533,8 +2533,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="7" t="s">
+      <c r="A73" s="7"/>
+      <c r="B73" s="8" t="s">
         <v>203</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2548,8 +2548,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="8"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="1" t="s">
         <v>205</v>
       </c>
@@ -2561,8 +2561,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="8"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="1" t="s">
         <v>206</v>
       </c>
@@ -2574,8 +2574,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="8"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="9"/>
       <c r="C76" s="1" t="s">
         <v>209</v>
       </c>
@@ -2587,8 +2587,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="8"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="1" t="s">
         <v>211</v>
       </c>
@@ -2600,8 +2600,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="8"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="9"/>
       <c r="C78" s="1" t="s">
         <v>212</v>
       </c>
@@ -2613,8 +2613,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="8"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="1" t="s">
         <v>213</v>
       </c>
@@ -2626,8 +2626,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="8"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="1" t="s">
         <v>109</v>
       </c>
@@ -2639,8 +2639,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="8"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="1" t="s">
         <v>214</v>
       </c>
@@ -2652,8 +2652,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="8"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="1" t="s">
         <v>84</v>
       </c>
@@ -2665,8 +2665,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="9"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="10"/>
       <c r="C83" s="1" t="s">
         <v>108</v>
       </c>
@@ -2678,124 +2678,128 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
+      <c r="A84" s="7"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
+      <c r="A85" s="7"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
+      <c r="A86" s="7"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
+      <c r="A87" s="7"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
+      <c r="A88" s="7"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
+      <c r="A89" s="7"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
+      <c r="A90" s="7"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+      <c r="A91" s="7"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
+      <c r="A92" s="7"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
+      <c r="A93" s="7"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
+      <c r="A94" s="7"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
+      <c r="A95" s="7"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
+      <c r="A96" s="7"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
+      <c r="A97" s="7"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
+      <c r="A98" s="7"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
+      <c r="A99" s="7"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
+      <c r="A100" s="7"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
+      <c r="A101" s="7"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
+      <c r="A102" s="7"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
+      <c r="A103" s="7"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
+      <c r="A104" s="7"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
+      <c r="A105" s="7"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
+      <c r="A106" s="7"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
+      <c r="A107" s="7"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
+      <c r="A108" s="7"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
+      <c r="A109" s="7"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
+      <c r="A110" s="7"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
+      <c r="A111" s="7"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
+      <c r="A112" s="7"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
+      <c r="A113" s="7"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
+      <c r="A114" s="7"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="11"/>
+      <c r="A115" s="7"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="11"/>
+      <c r="A116" s="7"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
+      <c r="A117" s="7"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
+      <c r="A118" s="7"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="11"/>
+      <c r="A119" s="7"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
+      <c r="A120" s="7"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
+      <c r="A121" s="7"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="11"/>
+      <c r="A122" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="B16:B35"/>
     <mergeCell ref="A2:A122"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="B42:B47"/>
@@ -2804,10 +2808,6 @@
     <mergeCell ref="B59:B68"/>
     <mergeCell ref="B69:B72"/>
     <mergeCell ref="B73:B83"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="B16:B35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
